--- a/document/协会现有成员信息表.xlsx
+++ b/document/协会现有成员信息表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_Document\Python\pycharm\Application\personalwebsite\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52739B4D-77A9-47D3-AAA6-982A808F7972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A9B54-C8A0-45B2-B21D-05809966E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,9 +503,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -800,7 +797,7 @@
   <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -873,16 +870,16 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>4151013815</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>27</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="6">
@@ -918,10 +915,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="6">
         <v>24503674</v>
       </c>
@@ -957,10 +954,10 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="6">
         <v>25703059</v>
       </c>
@@ -996,10 +993,10 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="6">
         <v>25702018</v>
       </c>
@@ -1035,10 +1032,10 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="6">
         <v>25203025</v>
       </c>
@@ -1074,10 +1071,10 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="6">
         <v>25305109</v>
       </c>
@@ -1113,10 +1110,10 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="6">
         <v>25506088</v>
       </c>
@@ -1152,10 +1149,10 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="6">
         <v>24201264</v>
       </c>
@@ -1191,10 +1188,10 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="6">
         <v>25401013</v>
       </c>
@@ -1230,10 +1227,10 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="6">
         <v>25604017</v>
       </c>
@@ -1269,10 +1266,10 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="6">
         <v>25401007</v>
       </c>
@@ -1308,10 +1305,10 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="6">
         <v>25401003</v>
       </c>
@@ -1347,10 +1344,10 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="6">
         <v>25401040</v>
       </c>
@@ -1386,10 +1383,10 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="6">
         <v>25301149</v>
       </c>
@@ -1425,10 +1422,10 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="6">
         <v>25301131</v>
       </c>
@@ -1464,10 +1461,10 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="6">
         <v>25604015</v>
       </c>
@@ -1503,10 +1500,10 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="6">
         <v>25604019</v>
       </c>
@@ -1542,10 +1539,10 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="6">
         <v>25604018</v>
       </c>
@@ -1581,10 +1578,10 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="6">
         <v>25601058</v>
       </c>
@@ -1620,10 +1617,10 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="6">
         <v>25203074</v>
       </c>
@@ -1659,10 +1656,10 @@
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="6">
         <v>25204059</v>
       </c>
@@ -1698,10 +1695,10 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="6">
         <v>25204060</v>
       </c>
@@ -1737,10 +1734,10 @@
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="6">
         <v>25702011</v>
       </c>
@@ -1776,10 +1773,10 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="6">
         <v>23401156</v>
       </c>
@@ -1815,10 +1812,10 @@
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="6">
         <v>25204069</v>
       </c>
@@ -1854,10 +1851,10 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="6">
         <v>24503108</v>
       </c>
@@ -1893,10 +1890,10 @@
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="6">
         <v>25704012</v>
       </c>
@@ -1932,10 +1929,10 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="6">
         <v>25703065</v>
       </c>
@@ -1971,10 +1968,10 @@
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="6">
         <v>25204169</v>
       </c>
@@ -2010,10 +2007,10 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="6">
         <v>25705098</v>
       </c>
@@ -2049,10 +2046,10 @@
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="6">
         <v>25604012</v>
       </c>
@@ -2088,10 +2085,10 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="6">
         <v>25604014</v>
       </c>
@@ -2127,10 +2124,10 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="6">
         <v>24503105</v>
       </c>
@@ -2166,10 +2163,10 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="6">
         <v>24505098</v>
       </c>
@@ -2205,10 +2202,10 @@
       <c r="A36" s="5">
         <v>36</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="6">
         <v>24502035</v>
       </c>
@@ -2244,10 +2241,10 @@
       <c r="A37" s="5">
         <v>37</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="6">
         <v>24506003</v>
       </c>
@@ -2283,10 +2280,10 @@
       <c r="A38" s="5">
         <v>38</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="14">
         <v>25306014</v>
       </c>
@@ -2322,10 +2319,10 @@
       <c r="A39" s="5">
         <v>39</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="14">
         <v>24703030</v>
       </c>
@@ -2361,10 +2358,10 @@
       <c r="A40" s="5">
         <v>40</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="14">
         <v>25306143</v>
       </c>
@@ -2400,10 +2397,10 @@
       <c r="A41" s="5">
         <v>41</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="14">
         <v>24501025</v>
       </c>
@@ -2437,10 +2434,10 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="5"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="14">
         <v>25506067</v>
       </c>
@@ -2476,10 +2473,10 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="14">
         <v>24302050</v>
       </c>
@@ -2515,10 +2512,10 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="14">
         <v>25704030</v>
       </c>
@@ -2554,10 +2551,10 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="14">
         <v>25204020</v>
       </c>
@@ -2593,10 +2590,10 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="14">
         <v>25204055</v>
       </c>
@@ -2632,10 +2629,10 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="14">
         <v>25703050</v>
       </c>
@@ -2671,10 +2668,10 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="14">
         <v>25204027</v>
       </c>
@@ -2710,10 +2707,10 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="14">
         <v>25703062</v>
       </c>
@@ -2747,10 +2744,10 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="5"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="14">
         <v>25411014</v>
       </c>
@@ -2772,7 +2769,7 @@
       <c r="L50" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="M50" s="16" t="s">
+      <c r="M50" s="15" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="9">
@@ -2786,38 +2783,38 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="14">
         <v>25703064</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="12">
-        <v>45901</v>
-      </c>
-      <c r="I51" s="12">
-        <v>46569</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="12">
+      <c r="H51" s="14">
+        <v>45901</v>
+      </c>
+      <c r="I51" s="14">
+        <v>46569</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="14">
         <v>46008</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L51" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="9">
+      <c r="M51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="14">
         <v>46008</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="14">
         <v>46008</v>
       </c>
     </row>
@@ -2825,38 +2822,38 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="14">
         <v>24703027</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H52" s="12">
-        <v>45901</v>
-      </c>
-      <c r="I52" s="12">
-        <v>46569</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K52" s="12">
+      <c r="H52" s="14">
+        <v>45901</v>
+      </c>
+      <c r="I52" s="14">
+        <v>46569</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="14">
         <v>46008</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="L52" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="9">
+      <c r="M52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="14">
         <v>46008</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="14">
         <v>46008</v>
       </c>
     </row>
@@ -2864,104 +2861,104 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="14">
         <v>24503020</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="12">
-        <v>45901</v>
-      </c>
-      <c r="I53" s="12">
-        <v>46569</v>
-      </c>
-      <c r="J53" s="12" t="s">
+      <c r="H53" s="14">
+        <v>45901</v>
+      </c>
+      <c r="I53" s="14">
+        <v>46569</v>
+      </c>
+      <c r="J53" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="14">
         <v>46012</v>
       </c>
-      <c r="L53" s="12"/>
-      <c r="M53" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" s="9"/>
-      <c r="O53" s="11"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="14">
         <v>24503008</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="12">
-        <v>45901</v>
-      </c>
-      <c r="I54" s="12">
-        <v>46569</v>
-      </c>
-      <c r="J54" s="12" t="s">
+      <c r="H54" s="14">
+        <v>45901</v>
+      </c>
+      <c r="I54" s="14">
+        <v>46569</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="14">
         <v>46012</v>
       </c>
-      <c r="L54" s="12"/>
-      <c r="M54" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="9"/>
-      <c r="O54" s="11"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="15">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="14">
         <v>24501006</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H55" s="12">
-        <v>45901</v>
-      </c>
-      <c r="I55" s="12">
-        <v>46569</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K55" s="12">
-        <v>46007</v>
-      </c>
-      <c r="L55" s="12" t="s">
+      <c r="H55" s="14">
+        <v>45901</v>
+      </c>
+      <c r="I55" s="14">
+        <v>46569</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="14">
+        <v>46007</v>
+      </c>
+      <c r="L55" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M55" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" s="9">
-        <v>46007</v>
-      </c>
-      <c r="O55" s="11">
+      <c r="M55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="14">
+        <v>46007</v>
+      </c>
+      <c r="O55" s="14">
         <v>46007</v>
       </c>
     </row>
@@ -2969,38 +2966,38 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="15" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="14">
         <v>1</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="14">
         <v>1</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="14">
         <v>1</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="14">
         <v>1</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="14">
         <v>1</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L56" s="14">
         <v>1</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M56" s="14">
         <v>1</v>
       </c>
-      <c r="N56" s="16">
+      <c r="N56" s="14">
         <v>1</v>
       </c>
-      <c r="O56" s="16">
+      <c r="O56" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3008,646 +3005,646 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="5">
         <v>64</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="5">
         <v>66</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="5">
         <v>68</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="5">
         <v>70</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="5">
         <v>72</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="5">
         <v>74</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="5">
         <v>75</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="5">
         <v>76</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="5">
         <v>77</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="5">
         <v>78</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="5">
         <v>79</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="5">
         <v>80</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="5">
         <v>81</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/document/协会现有成员信息表.xlsx
+++ b/document/协会现有成员信息表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_Document\Python\pycharm\Application\personalwebsite\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A9B54-C8A0-45B2-B21D-05809966E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDCF909-984F-46D1-92CF-055B46A1CE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="90">
   <si>
     <t>序号</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>谢羽欣</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思宏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄海洲</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨鹏</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -794,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2793,17 +2805,17 @@
       <c r="G51" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="14">
-        <v>45901</v>
-      </c>
-      <c r="I51" s="14">
+      <c r="H51" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I51" s="12">
         <v>46569</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="14">
-        <v>46008</v>
+      <c r="K51" s="12">
+        <v>46007</v>
       </c>
       <c r="L51" s="14" t="s">
         <v>79</v>
@@ -2832,17 +2844,17 @@
       <c r="G52" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H52" s="14">
-        <v>45901</v>
-      </c>
-      <c r="I52" s="14">
+      <c r="H52" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I52" s="12">
         <v>46569</v>
       </c>
       <c r="J52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K52" s="14">
-        <v>46008</v>
+      <c r="K52" s="12">
+        <v>46007</v>
       </c>
       <c r="L52" s="14" t="s">
         <v>79</v>
@@ -2871,17 +2883,17 @@
       <c r="G53" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="14">
-        <v>45901</v>
-      </c>
-      <c r="I53" s="14">
+      <c r="H53" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I53" s="12">
         <v>46569</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="14">
-        <v>46012</v>
+      <c r="K53" s="12">
+        <v>46007</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="14" t="s">
@@ -2904,17 +2916,17 @@
       <c r="G54" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="14">
-        <v>45901</v>
-      </c>
-      <c r="I54" s="14">
+      <c r="H54" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I54" s="12">
         <v>46569</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="14">
-        <v>46012</v>
+      <c r="K54" s="12">
+        <v>46007</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="14" t="s">
@@ -2932,35 +2944,29 @@
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="14">
-        <v>24501006</v>
+        <v>12345678</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="14">
-        <v>45901</v>
-      </c>
-      <c r="I55" s="14">
+        <v>88</v>
+      </c>
+      <c r="H55" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I55" s="12">
         <v>46569</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K55" s="14">
-        <v>46007</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>79</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K55" s="12">
+        <v>46007</v>
+      </c>
+      <c r="L55" s="14"/>
       <c r="M55" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="14">
-        <v>46007</v>
-      </c>
-      <c r="O55" s="14">
-        <v>46007</v>
-      </c>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="5">
@@ -2970,38 +2976,32 @@
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="14">
-        <v>1</v>
-      </c>
-      <c r="H56" s="14">
-        <v>1</v>
-      </c>
-      <c r="I56" s="14">
-        <v>1</v>
-      </c>
-      <c r="J56" s="14">
-        <v>1</v>
-      </c>
-      <c r="K56" s="14">
-        <v>1</v>
-      </c>
-      <c r="L56" s="14">
-        <v>1</v>
-      </c>
-      <c r="M56" s="14">
-        <v>1</v>
-      </c>
-      <c r="N56" s="14">
-        <v>1</v>
-      </c>
-      <c r="O56" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="14.25">
+      <c r="F56" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I56" s="12">
+        <v>46569</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="12">
+        <v>46007</v>
+      </c>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -3009,16 +3009,30 @@
       <c r="C57" s="20"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
+      <c r="F57" s="14">
+        <v>24407007</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I57" s="12">
+        <v>46569</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="12">
+        <v>46007</v>
+      </c>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="5">
@@ -3028,16 +3042,36 @@
       <c r="C58" s="20"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
+      <c r="F58" s="14">
+        <v>24501006</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="12">
+        <v>45901</v>
+      </c>
+      <c r="I58" s="12">
+        <v>46569</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="12">
+        <v>46007</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="14">
+        <v>46007</v>
+      </c>
+      <c r="O58" s="14">
+        <v>46007</v>
+      </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="5">
@@ -3047,18 +3081,38 @@
       <c r="C59" s="20"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="F59" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="14">
+        <v>1</v>
+      </c>
+      <c r="H59" s="14">
+        <v>1</v>
+      </c>
+      <c r="I59" s="14">
+        <v>1</v>
+      </c>
+      <c r="J59" s="14">
+        <v>1</v>
+      </c>
+      <c r="K59" s="14">
+        <v>1</v>
+      </c>
+      <c r="L59" s="14">
+        <v>1</v>
+      </c>
+      <c r="M59" s="14">
+        <v>1</v>
+      </c>
+      <c r="N59" s="14">
+        <v>1</v>
+      </c>
+      <c r="O59" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -3068,9 +3122,9 @@
       <c r="E60" s="21"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -3332,8 +3386,8 @@
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -3389,8 +3443,8 @@
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -3645,6 +3699,42 @@
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+    </row>
+    <row r="97" spans="6:15">
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
